--- a/medicine/Handicap/Claude_Chalaguier/Claude_Chalaguier.xlsx
+++ b/medicine/Handicap/Claude_Chalaguier/Claude_Chalaguier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Chalaguier, né le 18 janvier 1936 à Perpignan et mort le 20 janvier 2019 à Rillieux-la-Pape[1],[2], est un auteur et metteur en scène français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Chalaguier, né le 18 janvier 1936 à Perpignan et mort le 20 janvier 2019 à Rillieux-la-Pape est un auteur et metteur en scène français. 
 Il est connu pour son travail avec le Groupe Signes. Son théâtre n’est pas un théâtre de texte mais plutôt un théâtre à la fois corporel, théâtre de danse et théâtre d’objets, avec une troupe composée « d’acteurs ordinaires et d’acteurs extraordinaires » (ailleurs considérés comme handicapés).
-Docteur ès lettres, il est auteur d'une thèse en sciences de l'éducation soutenue en 1988 : Des droits de la différence aux droits de la ressemblance pour les handicapés mentaux[3].
+Docteur ès lettres, il est auteur d'une thèse en sciences de l'éducation soutenue en 1988 : Des droits de la différence aux droits de la ressemblance pour les handicapés mentaux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Le Groupe Signes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1983, Claude Chalaguier créé le Groupe Signes, une compagnie de théâtre qui réunit des acteurs dits handicapés et d'autres dont on ne le dit pas. Une aventure dans laquelle se sont engagés des hommes et des femmes, venus de tous les horizons, pour tenter de changer le regard sur la personne en situation de handicap.
 Les créations du Groupe Signes reposent sur une forme théâtrale innovante et sensible, une forme contemporaine, à la croisée du théâtre, de la danse et des arts plastiques. Un théâtre engagé, parfois provocateur et impertinent, mais toujours sensible et poétique.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Créations théâtrales
-1983 : Une ardoise de silence
+          <t>Créations théâtrales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1983 : Une ardoise de silence
 1987 : Presqu’il(e)
 1990 : La pendule noire
 1993 : Romain, terre fragile
@@ -563,9 +582,43 @@
 2004 : Conto Conti
 2005 : Sourire vide en temps de guerre
 2006 : Les Ogres, acte II
-2016 : Voix publiques de femmes au Lavoir
-Filmographie - Vidéographie
-Une ardoise de silence, 1986, 40 min
+2016 : Voix publiques de femmes au Lavoir</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Chalaguier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Chalaguier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Filmographie - Vidéographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une ardoise de silence, 1986, 40 min
 La pendule noire, 1991, 15 min
 L’enfant rêvé, 1989, 26 min
 Discours Amoureux, 1994, 26 min
@@ -574,9 +627,43 @@
 Papier ou les contre-écritures, 2001, 22 min
 Fabulosas Fabulas, 2001, 15 min
 Les Ogres, 2005, 30 min
-Sourire vide en temps de Guerre, 2013, 48 min
-Publications
-L'expression Corporelle, Bayard Éditions, 1974 (en collaboration avec Henri Bossu)
+Sourire vide en temps de Guerre, 2013, 48 min</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Chalaguier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Chalaguier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression Corporelle, Bayard Éditions, 1974 (en collaboration avec Henri Bossu)
 Le jeu de L'Expression et l'Imaginaire, Communiquer avec l'Enfant, Éditions Fleurus, 1979 (En collaboration avec Gérard Mallen)
 Travail Culture et Handicap, Éditions Bayard, 1992
 Fernand Deligny, 50 ans d'asile, Éditions Erès, 1998
